--- a/data/2025招生计划提取-修正.xlsx
+++ b/data/2025招生计划提取-修正.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uv_code_lib\niece_edu\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_code_lib\niece_edu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A29C88-33BE-44F3-852A-4B867BAA8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC4E253-95AD-4D43-AC20-07F97AC0E2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,17 @@
     <sheet name="民办学校" sheetId="4" r:id="rId3"/>
     <sheet name="公办学校" sheetId="3" r:id="rId4"/>
     <sheet name="2024单招录取率存疑" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2024单招录取率存疑'!$A$1:$A$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$R$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">公办学校!$A$1:$S$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="15" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="398">
   <si>
     <t>学校名称</t>
   </si>
@@ -1036,34 +1039,227 @@
     <t>录取率</t>
   </si>
   <si>
-    <t>长沙电力职业技术学校</t>
-  </si>
-  <si>
-    <t>衡阳幼儿师范高等专科学院</t>
-  </si>
-  <si>
-    <t>湖南国防工业职业学院</t>
-  </si>
-  <si>
-    <t>永州师范高等专科学院</t>
-  </si>
-  <si>
-    <t>湖南汽车工程职业学院</t>
-  </si>
-  <si>
-    <t>湖南水利水电职业学院</t>
-  </si>
-  <si>
-    <t>张家界航空职业技术学院</t>
-  </si>
-  <si>
-    <t>益阳职业技术学校</t>
-  </si>
-  <si>
     <t>保险职业学院</t>
   </si>
   <si>
     <t>退伍军人占比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中位数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>衡阳幼儿师范高等专科学校</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>永州师范高等专科学校</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家界航空工业职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>益阳职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地级市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#N/A</t>
+  </si>
+  <si>
+    <t>平均值项:录取率</t>
+  </si>
+  <si>
+    <t>求和项:单招计划</t>
+  </si>
+  <si>
+    <t>求和项:报考人数</t>
+  </si>
+  <si>
+    <t>湘东</t>
+  </si>
+  <si>
+    <t>湘南</t>
+  </si>
+  <si>
+    <t>湘北</t>
+  </si>
+  <si>
+    <t>湘西</t>
+  </si>
+  <si>
+    <t>湘中</t>
+  </si>
+  <si>
+    <t>区位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 长沙市</t>
+  </si>
+  <si>
+    <t>GDP：约 14,300亿元</t>
+  </si>
+  <si>
+    <t>（省会城市，经济、科技、文化中心）</t>
+  </si>
+  <si>
+    <t>2. 岳阳市</t>
+  </si>
+  <si>
+    <t>GDP：约 4,750亿元</t>
+  </si>
+  <si>
+    <t>（石化、港口经济突出，长江经济带枢纽）</t>
+  </si>
+  <si>
+    <t>3. 常德市</t>
+  </si>
+  <si>
+    <t>GDP：约 4,500亿元</t>
+  </si>
+  <si>
+    <t>（农业强市，食品加工、装备制造）</t>
+  </si>
+  <si>
+    <t>4. 衡阳市</t>
+  </si>
+  <si>
+    <t>GDP：约 4,200亿元</t>
+  </si>
+  <si>
+    <t>（老工业基地，电子信息、新材料产业）</t>
+  </si>
+  <si>
+    <t>5. 株洲市</t>
+  </si>
+  <si>
+    <t>GDP：约 3,700亿元</t>
+  </si>
+  <si>
+    <t>（轨道交通、航空航天产业核心区）</t>
+  </si>
+  <si>
+    <t>6. 郴州市</t>
+  </si>
+  <si>
+    <t>GDP：约 3,080亿元</t>
+  </si>
+  <si>
+    <t>（对接粤港澳大湾区，有色金属、旅游业）</t>
+  </si>
+  <si>
+    <t>7. 湘潭市</t>
+  </si>
+  <si>
+    <t>GDP：约 2,700亿元</t>
+  </si>
+  <si>
+    <t>（“长株潭”核心城市，汽车制造、新能源）</t>
+  </si>
+  <si>
+    <t>8. 邵阳市</t>
+  </si>
+  <si>
+    <t>GDP：约 2,600亿元</t>
+  </si>
+  <si>
+    <t>（轻工、特色农业）</t>
+  </si>
+  <si>
+    <t>9. 永州市</t>
+  </si>
+  <si>
+    <t>GDP：约 2,450亿元</t>
+  </si>
+  <si>
+    <t>（生态农业、电子信息产业）</t>
+  </si>
+  <si>
+    <t>10. 益阳市</t>
+  </si>
+  <si>
+    <t>GDP：约 2,100亿元</t>
+  </si>
+  <si>
+    <t>（现代农业、新材料）</t>
+  </si>
+  <si>
+    <t>11. 娄底市</t>
+  </si>
+  <si>
+    <t>GDP：约 1,950亿元</t>
+  </si>
+  <si>
+    <t>（钢铁、能源产业）</t>
+  </si>
+  <si>
+    <t>12. 怀化市</t>
+  </si>
+  <si>
+    <t>GDP：约 1,870亿元</t>
+  </si>
+  <si>
+    <t>（物流枢纽、生态经济）</t>
+  </si>
+  <si>
+    <t>13. 张家界市</t>
+  </si>
+  <si>
+    <t>GDP：约 600亿元</t>
+  </si>
+  <si>
+    <t>（旅游主导型城市，经济总量较小）</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>GDP（亿元）</t>
+  </si>
+  <si>
+    <t>前三</t>
+  </si>
+  <si>
+    <t>前三</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四到七</t>
+  </si>
+  <si>
+    <t>四到七</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>八到十</t>
+  </si>
+  <si>
+    <t>八到十</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒数</t>
+  </si>
+  <si>
+    <t>倒数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长株潭</t>
+  </si>
+  <si>
+    <t>长株潭</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1156,12 +1352,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,12 +1367,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -1332,6 +1530,73 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="hbc_thinkbook16" refreshedDate="45698.672836805556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="69" xr:uid="{41FDD4D7-22AF-4FE2-8776-75F7FB630710}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G70" sheet="2024单招录取率存疑"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="单招院校" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="单招计划" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="3572"/>
+    </cacheField>
+    <cacheField name="报考人数" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="620" maxValue="7200"/>
+    </cacheField>
+    <cacheField name="录取率" numFmtId="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.3" maxValue="0.78"/>
+    </cacheField>
+    <cacheField name="地级市" numFmtId="0">
+      <sharedItems count="15">
+        <s v="衡阳市"/>
+        <s v="邵阳市"/>
+        <s v="岳阳市"/>
+        <s v="湘潭市"/>
+        <s v="益阳市"/>
+        <s v="长沙市"/>
+        <s v="永州市"/>
+        <s v="常德市"/>
+        <s v="怀化市"/>
+        <s v="娄底市"/>
+        <s v="张家界市"/>
+        <s v="株洲市"/>
+        <s v="郴州市"/>
+        <s v="湘西土家族苗族自治州"/>
+        <e v="#N/A"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="区位" numFmtId="0">
+      <sharedItems count="6">
+        <s v="湘南"/>
+        <s v="湘中"/>
+        <s v="湘北"/>
+        <s v="湘东"/>
+        <s v="湘西"/>
+        <e v="#N/A"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="GDP" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="四到七"/>
+        <s v="八到十"/>
+        <s v="前三"/>
+        <s v="长株潭"/>
+        <s v="倒数"/>
+        <e v="#N/A"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
   <r>
@@ -3177,8 +3442,634 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="69">
+  <r>
+    <s v="衡阳幼儿师范高等专科学校"/>
+    <n v="1960"/>
+    <n v="2500"/>
+    <n v="0.78"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="湘中幼儿师范高等专科学校"/>
+    <n v="1200"/>
+    <n v="1600"/>
+    <n v="0.75"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="湖南民族职业学院"/>
+    <n v="3000"/>
+    <n v="3950"/>
+    <n v="0.75"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="湖南城建职业技术学院"/>
+    <n v="2600"/>
+    <n v="3650"/>
+    <n v="0.71"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="益阳师范高等专科学校"/>
+    <n v="1190"/>
+    <n v="1700"/>
+    <n v="0.7"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="湖南交通职业技术学院"/>
+    <n v="2500"/>
+    <n v="3600"/>
+    <n v="0.69"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南工程职业技术学院"/>
+    <n v="2685"/>
+    <n v="3900"/>
+    <n v="0.68"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="永州师范高等专科学校"/>
+    <n v="1210"/>
+    <n v="1770"/>
+    <n v="0.68"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="湖南幼儿师范高等专科学校"/>
+    <n v="1120"/>
+    <n v="1650"/>
+    <n v="0.67"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="岳阳职业技术学院"/>
+    <n v="3000"/>
+    <n v="4500"/>
+    <n v="0.66"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="长沙环境保护职业技术学院"/>
+    <n v="2050"/>
+    <n v="3100"/>
+    <n v="0.66"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南科技职业学院"/>
+    <n v="2700"/>
+    <n v="4200"/>
+    <n v="0.64"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="怀化师范高等专科学校"/>
+    <n v="1140"/>
+    <n v="1800"/>
+    <n v="0.63"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="娄底幼儿师范高等专科学校"/>
+    <n v="700"/>
+    <n v="1100"/>
+    <n v="0.63"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="湖南外贸职业学院"/>
+    <n v="2450"/>
+    <n v="3900"/>
+    <n v="0.62"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南商务职业技术学院"/>
+    <n v="2100"/>
+    <n v="3400"/>
+    <n v="0.61"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="长沙民政职业技术学院"/>
+    <n v="2685"/>
+    <n v="4480"/>
+    <n v="0.59"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="张家界航空工业职业技术学院"/>
+    <n v="2020"/>
+    <n v="3377"/>
+    <n v="0.59"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="株洲师范高等专科学校"/>
+    <n v="870"/>
+    <n v="1500"/>
+    <n v="0.57999999999999996"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南生物机电职业技术学院"/>
+    <n v="3200"/>
+    <n v="5600"/>
+    <n v="0.56999999999999995"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南信息职业技术学院"/>
+    <n v="2200"/>
+    <n v="3800"/>
+    <n v="0.56999999999999995"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南财经工业职业技术学院"/>
+    <n v="3016"/>
+    <n v="5300"/>
+    <n v="0.56000000000000005"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="长沙幼儿师范高等专科学校"/>
+    <n v="1340"/>
+    <n v="2400"/>
+    <n v="0.55000000000000004"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南安全技术职业学院"/>
+    <n v="2200"/>
+    <n v="3950"/>
+    <n v="0.55000000000000004"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南工艺美术职业学院"/>
+    <n v="1000"/>
+    <n v="1800"/>
+    <n v="0.55000000000000004"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="湖南工业职业技术学院"/>
+    <n v="1570"/>
+    <n v="2900"/>
+    <n v="0.54"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南铁路科技职业技术学院"/>
+    <n v="2000"/>
+    <n v="3700"/>
+    <n v="0.54"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南环境生物职业技术学院"/>
+    <n v="3200"/>
+    <n v="5900"/>
+    <n v="0.54"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="湖南机电职业技术学院"/>
+    <n v="3180"/>
+    <n v="5800"/>
+    <n v="0.54"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南化工职业技术学院"/>
+    <n v="3000"/>
+    <n v="5500"/>
+    <n v="0.54"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南铁道职业技术学院"/>
+    <n v="1600"/>
+    <n v="3000"/>
+    <n v="0.53"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南汽车工程职业大学"/>
+    <n v="3500"/>
+    <n v="6500"/>
+    <n v="0.53"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="郴州职业技术学院"/>
+    <n v="2300"/>
+    <n v="4300"/>
+    <n v="0.53"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="湖南高速铁路职业技术学院"/>
+    <n v="2500"/>
+    <n v="4800"/>
+    <n v="0.52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="湘南幼儿师范高等专科学校"/>
+    <n v="840"/>
+    <n v="1600"/>
+    <n v="0.52"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="常德职业技术学院"/>
+    <n v="3200"/>
+    <n v="6055"/>
+    <n v="0.52"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="怀化职业技术学院"/>
+    <n v="2200"/>
+    <n v="4200"/>
+    <n v="0.52"/>
+    <x v="8"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="湘西民族职业技术学院"/>
+    <n v="2150"/>
+    <n v="4100"/>
+    <n v="0.52"/>
+    <x v="13"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="永州职业技术学院"/>
+    <n v="3572"/>
+    <n v="7050"/>
+    <n v="0.51"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="湖南体育职业学院"/>
+    <n v="680"/>
+    <n v="1308"/>
+    <n v="0.51"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="常德科技职业技术学院"/>
+    <n v="1000"/>
+    <n v="1950"/>
+    <n v="0.51"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="湖南九嶷职业技术学院"/>
+    <n v="1200"/>
+    <n v="2350"/>
+    <n v="0.51"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="长沙商贸旅游职业技术学院"/>
+    <n v="2100"/>
+    <n v="4200"/>
+    <n v="0.5"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南艺术职业学院"/>
+    <n v="600"/>
+    <n v="1200"/>
+    <n v="0.5"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南邮电职业技术学院"/>
+    <n v="865"/>
+    <n v="1700"/>
+    <n v="0.5"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="益阳职业技术学院"/>
+    <n v="1750"/>
+    <n v="3450"/>
+    <n v="0.5"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="保险职业学院"/>
+    <n v="750"/>
+    <n v="1500"/>
+    <n v="0.5"/>
+    <x v="14"/>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="湖南理工职业技术学院"/>
+    <n v="1500"/>
+    <n v="3000"/>
+    <n v="0.5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湘潭医卫职业技术学院"/>
+    <n v="2325"/>
+    <n v="4800"/>
+    <n v="0.48"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="娄底职业技术学院"/>
+    <n v="3500"/>
+    <n v="7200"/>
+    <n v="0.48"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="湖南水利水电职业技术学院"/>
+    <n v="2000"/>
+    <n v="4096"/>
+    <n v="0.48"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南现代物流职业技术学院"/>
+    <n v="1985"/>
+    <n v="4100"/>
+    <n v="0.48"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南劳动人事职业学院"/>
+    <n v="1700"/>
+    <n v="3500"/>
+    <n v="0.48"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南石油化工职业技术学院"/>
+    <n v="1705"/>
+    <n v="3500"/>
+    <n v="0.48"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="湖南有色金属职业技术学院"/>
+    <n v="1800"/>
+    <n v="3750"/>
+    <n v="0.48"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="邵阳职业技术学院"/>
+    <n v="2025"/>
+    <n v="4250"/>
+    <n v="0.47"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="邵阳工业职业技术学院"/>
+    <n v="1500"/>
+    <n v="3150"/>
+    <n v="0.47"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="湖南食品药品职业学院"/>
+    <n v="2000"/>
+    <n v="4200"/>
+    <n v="0.47"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="长沙职业技术学院"/>
+    <n v="2050"/>
+    <n v="4447"/>
+    <n v="0.46"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="益阳医学高等专科学校"/>
+    <n v="2130"/>
+    <n v="4600"/>
+    <n v="0.46"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="湖南电气职业技术学院"/>
+    <n v="2040"/>
+    <n v="4500"/>
+    <n v="0.45"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南中医药高等专科学校"/>
+    <n v="1450"/>
+    <n v="3320"/>
+    <n v="0.43"/>
+    <x v="11"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南网络工程职业学院"/>
+    <n v="1150"/>
+    <n v="2700"/>
+    <n v="0.42"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南国防工业职业技术学院"/>
+    <n v="600"/>
+    <n v="1400"/>
+    <n v="0.42"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南司法警官职业学院"/>
+    <n v="500"/>
+    <n v="1240"/>
+    <n v="0.4"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="湖南大众传媒职业技术学院"/>
+    <n v="1000"/>
+    <n v="2600"/>
+    <n v="0.38"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="长沙卫生职业学院"/>
+    <n v="1500"/>
+    <n v="3998"/>
+    <n v="0.37"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="长沙航空职业技术学院"/>
+    <n v="200"/>
+    <n v="620"/>
+    <n v="0.32"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="长沙电力职业技术学院"/>
+    <n v="360"/>
+    <n v="1200"/>
+    <n v="0.3"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{663E0A7D-2174-422B-BD67-AD0AF7C52860}" name="数据透视表2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{663E0A7D-2174-422B-BD67-AD0AF7C52860}" name="数据透视表2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -3318,6 +4209,177 @@
   <dataFields count="2">
     <dataField name="求和项:退役军人数" fld="6" baseField="0" baseItem="0"/>
     <dataField name="求和项:总招生计划数" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D24052E-0BB2-491A-AAD3-E1C3A3B9047F}" name="数据透视表1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L1:O22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="16">
+        <item sd="0" x="7"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="14"/>
+        <item t="default" sd="0"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="8">
+        <item sd="0" m="1" x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default" sd="0"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="6"/>
+    <field x="4"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="平均值项:录取率" fld="3" subtotal="average" baseField="4" baseItem="0" numFmtId="9"/>
+    <dataField name="求和项:单招计划" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="求和项:报考人数" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3622,14 +4684,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>320</v>
       </c>
@@ -3640,80 +4702,80 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>4284</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>1484</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>2800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>1375</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>161886</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>977</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>114080</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>398</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>47806</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>1405</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>166170</v>
       </c>
     </row>
@@ -3732,12 +4794,12 @@
       <selection activeCell="N1" sqref="A1:R93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="175.75" customWidth="1"/>
+    <col min="2" max="2" width="175.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3793,7 +4855,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3846,7 +4908,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3899,7 +4961,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3952,7 +5014,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4005,7 +5067,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4058,7 +5120,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4111,7 +5173,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4164,7 +5226,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -4217,7 +5279,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -4270,7 +5332,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -4323,7 +5385,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -4376,7 +5438,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -4429,7 +5491,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -4482,7 +5544,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4535,7 +5597,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -4588,7 +5650,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -4641,7 +5703,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -4694,7 +5756,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -4747,7 +5809,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -4800,7 +5862,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -4853,7 +5915,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -4906,7 +5968,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -4959,7 +6021,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -5012,7 +6074,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -5065,7 +6127,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -5118,7 +6180,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -5171,7 +6233,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -5224,7 +6286,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -5277,7 +6339,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -5330,7 +6392,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -5383,7 +6445,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -5436,7 +6498,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -5489,7 +6551,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -5542,7 +6604,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -5595,7 +6657,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -5648,7 +6710,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -5701,7 +6763,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -5754,7 +6816,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>140</v>
       </c>
@@ -5807,7 +6869,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -5860,7 +6922,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -5913,7 +6975,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -5966,7 +7028,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -6019,7 +7081,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -6072,7 +7134,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -6125,7 +7187,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>158</v>
       </c>
@@ -6178,7 +7240,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -6231,7 +7293,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -6284,7 +7346,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -6337,7 +7399,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -6390,7 +7452,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -6443,7 +7505,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -6496,7 +7558,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>179</v>
       </c>
@@ -6549,7 +7611,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -6602,7 +7664,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -6655,7 +7717,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>186</v>
       </c>
@@ -6708,7 +7770,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -6761,7 +7823,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -6814,7 +7876,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -6867,7 +7929,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -6920,7 +7982,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -6973,7 +8035,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>200</v>
       </c>
@@ -7026,7 +8088,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -7079,7 +8141,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>205</v>
       </c>
@@ -7132,7 +8194,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -7185,7 +8247,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>211</v>
       </c>
@@ -7238,7 +8300,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -7291,7 +8353,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>216</v>
       </c>
@@ -7344,7 +8406,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>218</v>
       </c>
@@ -7397,7 +8459,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>221</v>
       </c>
@@ -7450,7 +8512,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -7503,7 +8565,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -7556,7 +8618,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>231</v>
       </c>
@@ -7609,7 +8671,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -7665,7 +8727,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>237</v>
       </c>
@@ -7718,7 +8780,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -7771,7 +8833,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -7824,7 +8886,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>245</v>
       </c>
@@ -7877,7 +8939,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>247</v>
       </c>
@@ -7930,7 +8992,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>250</v>
       </c>
@@ -7983,7 +9045,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>252</v>
       </c>
@@ -8039,7 +9101,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>254</v>
       </c>
@@ -8092,7 +9154,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>257</v>
       </c>
@@ -8145,7 +9207,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>259</v>
       </c>
@@ -8198,7 +9260,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>262</v>
       </c>
@@ -8251,7 +9313,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>265</v>
       </c>
@@ -8304,7 +9366,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -8357,7 +9419,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>270</v>
       </c>
@@ -8410,7 +9472,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -8463,7 +9525,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>275</v>
       </c>
@@ -8519,7 +9581,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>277</v>
       </c>
@@ -8572,7 +9634,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>280</v>
       </c>
@@ -8625,7 +9687,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>283</v>
       </c>
@@ -8700,23 +9762,23 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="194.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="194.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8772,10 +9834,10 @@
         <v>291</v>
       </c>
       <c r="S1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -8827,12 +9889,12 @@
       <c r="Q2" t="s">
         <v>295</v>
       </c>
-      <c r="S2" s="8" t="e">
-        <f>G2/E2</f>
+      <c r="S2" s="7" t="e">
+        <f t="shared" ref="S2:S19" si="0">G2/E2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -8884,12 +9946,12 @@
       <c r="Q3" t="s">
         <v>295</v>
       </c>
-      <c r="S3" s="8">
-        <f>G3/E3</f>
+      <c r="S3" s="7">
+        <f t="shared" si="0"/>
         <v>3.5958288385472853E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -8941,12 +10003,12 @@
       <c r="Q4" t="s">
         <v>295</v>
       </c>
-      <c r="S4" s="8">
-        <f>G4/E4</f>
+      <c r="S4" s="7">
+        <f t="shared" si="0"/>
         <v>3.1746031746031744E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -8998,12 +10060,12 @@
       <c r="Q5" t="s">
         <v>295</v>
       </c>
-      <c r="S5" s="8">
-        <f>G5/E5</f>
+      <c r="S5" s="7">
+        <f t="shared" si="0"/>
         <v>1.5873015873015872E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -9058,12 +10120,12 @@
       <c r="R6" t="s">
         <v>315</v>
       </c>
-      <c r="S6" s="8">
-        <f>G6/E6</f>
+      <c r="S6" s="7">
+        <f t="shared" si="0"/>
         <v>1.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -9118,12 +10180,12 @@
       <c r="R7" t="s">
         <v>315</v>
       </c>
-      <c r="S7" s="8">
-        <f>G7/E7</f>
+      <c r="S7" s="7">
+        <f t="shared" si="0"/>
         <v>1.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -9175,12 +10237,12 @@
       <c r="Q8" t="s">
         <v>295</v>
       </c>
-      <c r="S8" s="8">
-        <f>G8/E8</f>
+      <c r="S8" s="7">
+        <f t="shared" si="0"/>
         <v>9.5238095238095247E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -9232,12 +10294,12 @@
       <c r="Q9" t="s">
         <v>295</v>
       </c>
-      <c r="S9" s="8">
-        <f>G9/E9</f>
+      <c r="S9" s="7">
+        <f t="shared" si="0"/>
         <v>8.5714285714285719E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -9289,12 +10351,12 @@
       <c r="Q10" t="s">
         <v>305</v>
       </c>
-      <c r="S10" s="8">
-        <f>G10/E10</f>
+      <c r="S10" s="7">
+        <f t="shared" si="0"/>
         <v>7.1428571428571426E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -9349,12 +10411,12 @@
       <c r="R11" t="s">
         <v>315</v>
       </c>
-      <c r="S11" s="8">
-        <f>G11/E11</f>
+      <c r="S11" s="7">
+        <f t="shared" si="0"/>
         <v>4.7619047619047623E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -9406,12 +10468,12 @@
       <c r="Q12" t="s">
         <v>295</v>
       </c>
-      <c r="S12" s="8">
-        <f>G12/E12</f>
+      <c r="S12" s="7">
+        <f t="shared" si="0"/>
         <v>3.6968576709796672E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -9463,12 +10525,12 @@
       <c r="Q13" t="s">
         <v>295</v>
       </c>
-      <c r="S13" s="8">
-        <f>G13/E13</f>
+      <c r="S13" s="7">
+        <f t="shared" si="0"/>
         <v>3.1746031746031746E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -9520,12 +10582,12 @@
       <c r="Q14" t="s">
         <v>295</v>
       </c>
-      <c r="S14" s="8">
-        <f>G14/E14</f>
+      <c r="S14" s="7">
+        <f t="shared" si="0"/>
         <v>2.4630541871921183E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -9577,12 +10639,12 @@
       <c r="Q15" t="s">
         <v>295</v>
       </c>
-      <c r="S15" s="8">
-        <f>G15/E15</f>
+      <c r="S15" s="7">
+        <f t="shared" si="0"/>
         <v>2.1008403361344537E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>283</v>
       </c>
@@ -9634,12 +10696,12 @@
       <c r="Q16" t="s">
         <v>295</v>
       </c>
-      <c r="S16" s="8">
-        <f>G16/E16</f>
+      <c r="S16" s="7">
+        <f t="shared" si="0"/>
         <v>6.3492063492063492E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -9691,12 +10753,12 @@
       <c r="Q17" t="s">
         <v>295</v>
       </c>
-      <c r="S17" s="8">
-        <f>G17/E17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -9748,12 +10810,12 @@
       <c r="Q18" t="s">
         <v>295</v>
       </c>
-      <c r="S18" s="8">
-        <f>G18/E18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -9805,8 +10867,8 @@
       <c r="Q19" t="s">
         <v>295</v>
       </c>
-      <c r="S19" s="8">
-        <f>G19/E19</f>
+      <c r="S19" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9822,18 +10884,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA8121F-D0BC-419E-A720-652189C061CA}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9889,7 +10952,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -9941,12 +11004,12 @@
       <c r="Q2" t="s">
         <v>295</v>
       </c>
-      <c r="S2" s="8" t="e">
-        <f>G2/E2</f>
+      <c r="S2" s="7" t="e">
+        <f t="shared" ref="S2:S33" si="0">G2/E2</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -9998,12 +11061,12 @@
       <c r="Q3" t="s">
         <v>305</v>
       </c>
-      <c r="S3" s="8" t="e">
-        <f>G3/E3</f>
+      <c r="S3" s="7" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -10055,12 +11118,12 @@
       <c r="Q4" t="s">
         <v>295</v>
       </c>
-      <c r="S4" s="8" t="e">
-        <f>G4/E4</f>
+      <c r="S4" s="7" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -10112,12 +11175,12 @@
       <c r="Q5" t="s">
         <v>295</v>
       </c>
-      <c r="S5" s="8" t="e">
-        <f>G5/E5</f>
+      <c r="S5" s="7" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10169,12 +11232,12 @@
       <c r="Q6" t="s">
         <v>295</v>
       </c>
-      <c r="S6" s="8">
-        <f>G6/E6</f>
+      <c r="S6" s="7">
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -10226,12 +11289,12 @@
       <c r="Q7" t="s">
         <v>295</v>
       </c>
-      <c r="S7" s="8">
-        <f>G7/E7</f>
+      <c r="S7" s="7">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -10283,12 +11346,12 @@
       <c r="Q8" t="s">
         <v>295</v>
       </c>
-      <c r="S8" s="8">
-        <f>G8/E8</f>
+      <c r="S8" s="7">
+        <f t="shared" si="0"/>
         <v>4.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -10340,12 +11403,12 @@
       <c r="Q9" t="s">
         <v>295</v>
       </c>
-      <c r="S9" s="8">
-        <f>G9/E9</f>
+      <c r="S9" s="7">
+        <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -10397,12 +11460,12 @@
       <c r="Q10" t="s">
         <v>295</v>
       </c>
-      <c r="S10" s="8">
-        <f>G10/E10</f>
+      <c r="S10" s="7">
+        <f t="shared" si="0"/>
         <v>3.4682080924855488E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -10454,12 +11517,12 @@
       <c r="Q11" t="s">
         <v>295</v>
       </c>
-      <c r="S11" s="8">
-        <f>G11/E11</f>
+      <c r="S11" s="7">
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -10511,12 +11574,12 @@
       <c r="Q12" t="s">
         <v>295</v>
       </c>
-      <c r="S12" s="8">
-        <f>G12/E12</f>
+      <c r="S12" s="7">
+        <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>272</v>
       </c>
@@ -10568,12 +11631,12 @@
       <c r="Q13" t="s">
         <v>295</v>
       </c>
-      <c r="S13" s="8">
-        <f>G13/E13</f>
+      <c r="S13" s="7">
+        <f t="shared" si="0"/>
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -10625,12 +11688,12 @@
       <c r="Q14" t="s">
         <v>295</v>
       </c>
-      <c r="S14" s="8">
-        <f>G14/E14</f>
+      <c r="S14" s="7">
+        <f t="shared" si="0"/>
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -10682,12 +11745,12 @@
       <c r="Q15" t="s">
         <v>295</v>
       </c>
-      <c r="S15" s="8">
-        <f>G15/E15</f>
+      <c r="S15" s="7">
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -10739,12 +11802,12 @@
       <c r="Q16" t="s">
         <v>295</v>
       </c>
-      <c r="S16" s="8">
-        <f>G16/E16</f>
+      <c r="S16" s="7">
+        <f t="shared" si="0"/>
         <v>1.6216216216216217E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -10796,12 +11859,12 @@
       <c r="Q17" t="s">
         <v>295</v>
       </c>
-      <c r="S17" s="8">
-        <f>G17/E17</f>
+      <c r="S17" s="7">
+        <f t="shared" si="0"/>
         <v>1.5576323987538941E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -10853,12 +11916,12 @@
       <c r="Q18" t="s">
         <v>295</v>
       </c>
-      <c r="S18" s="8">
-        <f>G18/E18</f>
+      <c r="S18" s="7">
+        <f t="shared" si="0"/>
         <v>1.4705882352941176E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>176</v>
       </c>
@@ -10910,12 +11973,12 @@
       <c r="Q19" t="s">
         <v>295</v>
       </c>
-      <c r="S19" s="8">
-        <f>G19/E19</f>
+      <c r="S19" s="7">
+        <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -10967,12 +12030,12 @@
       <c r="Q20" t="s">
         <v>295</v>
       </c>
-      <c r="S20" s="8">
-        <f>G20/E20</f>
+      <c r="S20" s="7">
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -11024,12 +12087,12 @@
       <c r="Q21" t="s">
         <v>295</v>
       </c>
-      <c r="S21" s="8">
-        <f>G21/E21</f>
+      <c r="S21" s="7">
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>270</v>
       </c>
@@ -11081,12 +12144,12 @@
       <c r="Q22" t="s">
         <v>295</v>
       </c>
-      <c r="S22" s="8">
-        <f>G22/E22</f>
+      <c r="S22" s="7">
+        <f t="shared" si="0"/>
         <v>9.5238095238095247E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -11138,12 +12201,12 @@
       <c r="Q23" t="s">
         <v>295</v>
       </c>
-      <c r="S23" s="8">
-        <f>G23/E23</f>
+      <c r="S23" s="7">
+        <f t="shared" si="0"/>
         <v>9.0909090909090905E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -11195,12 +12258,12 @@
       <c r="Q24" t="s">
         <v>295</v>
       </c>
-      <c r="S24" s="8">
-        <f>G24/E24</f>
+      <c r="S24" s="7">
+        <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -11252,12 +12315,12 @@
       <c r="Q25" t="s">
         <v>295</v>
       </c>
-      <c r="S25" s="8">
-        <f>G25/E25</f>
+      <c r="S25" s="7">
+        <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -11309,12 +12372,12 @@
       <c r="Q26" t="s">
         <v>295</v>
       </c>
-      <c r="S26" s="8">
-        <f>G26/E26</f>
+      <c r="S26" s="7">
+        <f t="shared" si="0"/>
         <v>7.8048780487804878E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -11366,12 +12429,12 @@
       <c r="Q27" t="s">
         <v>295</v>
       </c>
-      <c r="S27" s="8">
-        <f>G27/E27</f>
+      <c r="S27" s="7">
+        <f t="shared" si="0"/>
         <v>7.6530612244897957E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>242</v>
       </c>
@@ -11423,12 +12486,12 @@
       <c r="Q28" t="s">
         <v>295</v>
       </c>
-      <c r="S28" s="8">
-        <f>G28/E28</f>
+      <c r="S28" s="7">
+        <f t="shared" si="0"/>
         <v>7.4074074074074077E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -11480,12 +12543,12 @@
       <c r="Q29" t="s">
         <v>295</v>
       </c>
-      <c r="S29" s="8">
-        <f>G29/E29</f>
+      <c r="S29" s="7">
+        <f t="shared" si="0"/>
         <v>7.1428571428571426E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -11537,12 +12600,12 @@
       <c r="Q30" t="s">
         <v>295</v>
       </c>
-      <c r="S30" s="8">
-        <f>G30/E30</f>
+      <c r="S30" s="7">
+        <f t="shared" si="0"/>
         <v>7.1428571428571426E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -11594,12 +12657,12 @@
       <c r="Q31" t="s">
         <v>305</v>
       </c>
-      <c r="S31" s="8">
-        <f>G31/E31</f>
+      <c r="S31" s="7">
+        <f t="shared" si="0"/>
         <v>6.7385444743935314E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -11651,12 +12714,12 @@
       <c r="Q32" t="s">
         <v>295</v>
       </c>
-      <c r="S32" s="8">
-        <f>G32/E32</f>
+      <c r="S32" s="7">
+        <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -11708,12 +12771,12 @@
       <c r="Q33" t="s">
         <v>295</v>
       </c>
-      <c r="S33" s="8">
-        <f>G33/E33</f>
+      <c r="S33" s="7">
+        <f t="shared" si="0"/>
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -11765,12 +12828,12 @@
       <c r="Q34" t="s">
         <v>295</v>
       </c>
-      <c r="S34" s="8">
-        <f>G34/E34</f>
+      <c r="S34" s="7">
+        <f t="shared" ref="S34:S65" si="1">G34/E34</f>
         <v>6.5789473684210523E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -11822,12 +12885,12 @@
       <c r="Q35" t="s">
         <v>295</v>
       </c>
-      <c r="S35" s="8">
-        <f>G35/E35</f>
+      <c r="S35" s="7">
+        <f t="shared" si="1"/>
         <v>6.4935064935064939E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -11879,12 +12942,12 @@
       <c r="Q36" t="s">
         <v>295</v>
       </c>
-      <c r="S36" s="8">
-        <f>G36/E36</f>
+      <c r="S36" s="7">
+        <f t="shared" si="1"/>
         <v>6.41025641025641E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -11936,12 +12999,12 @@
       <c r="Q37" t="s">
         <v>295</v>
       </c>
-      <c r="S37" s="8">
-        <f>G37/E37</f>
+      <c r="S37" s="7">
+        <f t="shared" si="1"/>
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -11993,12 +13056,12 @@
       <c r="Q38" t="s">
         <v>295</v>
       </c>
-      <c r="S38" s="8">
-        <f>G38/E38</f>
+      <c r="S38" s="7">
+        <f t="shared" si="1"/>
         <v>6.0975609756097563E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -12050,12 +13113,12 @@
       <c r="Q39" t="s">
         <v>295</v>
       </c>
-      <c r="S39" s="8">
-        <f>G39/E39</f>
+      <c r="S39" s="7">
+        <f t="shared" si="1"/>
         <v>6.0606060606060606E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -12107,12 +13170,12 @@
       <c r="Q40" t="s">
         <v>295</v>
       </c>
-      <c r="S40" s="8">
-        <f>G40/E40</f>
+      <c r="S40" s="7">
+        <f t="shared" si="1"/>
         <v>5.9171597633136093E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -12164,12 +13227,12 @@
       <c r="Q41" t="s">
         <v>295</v>
       </c>
-      <c r="S41" s="8">
-        <f>G41/E41</f>
+      <c r="S41" s="7">
+        <f t="shared" si="1"/>
         <v>5.7142857142857143E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>228</v>
       </c>
@@ -12221,12 +13284,12 @@
       <c r="Q42" t="s">
         <v>295</v>
       </c>
-      <c r="S42" s="8">
-        <f>G42/E42</f>
+      <c r="S42" s="7">
+        <f t="shared" si="1"/>
         <v>5.7142857142857143E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -12278,12 +13341,12 @@
       <c r="Q43" t="s">
         <v>295</v>
       </c>
-      <c r="S43" s="8">
-        <f>G43/E43</f>
+      <c r="S43" s="7">
+        <f t="shared" si="1"/>
         <v>5.5555555555555558E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -12335,12 +13398,12 @@
       <c r="Q44" t="s">
         <v>295</v>
       </c>
-      <c r="S44" s="8">
-        <f>G44/E44</f>
+      <c r="S44" s="7">
+        <f t="shared" si="1"/>
         <v>5.5478502080443829E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>163</v>
       </c>
@@ -12392,12 +13455,12 @@
       <c r="Q45" t="s">
         <v>295</v>
       </c>
-      <c r="S45" s="8">
-        <f>G45/E45</f>
+      <c r="S45" s="7">
+        <f t="shared" si="1"/>
         <v>5.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>247</v>
       </c>
@@ -12449,12 +13512,12 @@
       <c r="Q46" t="s">
         <v>295</v>
       </c>
-      <c r="S46" s="8">
-        <f>G46/E46</f>
+      <c r="S46" s="7">
+        <f t="shared" si="1"/>
         <v>5.1282051282051282E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>262</v>
       </c>
@@ -12506,12 +13569,12 @@
       <c r="Q47" t="s">
         <v>295</v>
       </c>
-      <c r="S47" s="8">
-        <f>G47/E47</f>
+      <c r="S47" s="7">
+        <f t="shared" si="1"/>
         <v>5.065856129685917E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -12563,12 +13626,12 @@
       <c r="Q48" t="s">
         <v>295</v>
       </c>
-      <c r="S48" s="8">
-        <f>G48/E48</f>
+      <c r="S48" s="7">
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>259</v>
       </c>
@@ -12620,12 +13683,12 @@
       <c r="Q49" t="s">
         <v>295</v>
       </c>
-      <c r="S49" s="8">
-        <f>G49/E49</f>
+      <c r="S49" s="7">
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -12677,12 +13740,12 @@
       <c r="Q50" t="s">
         <v>295</v>
       </c>
-      <c r="S50" s="8">
-        <f>G50/E50</f>
+      <c r="S50" s="7">
+        <f t="shared" si="1"/>
         <v>4.9261083743842365E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -12734,12 +13797,12 @@
       <c r="Q51" t="s">
         <v>295</v>
       </c>
-      <c r="S51" s="8">
-        <f>G51/E51</f>
+      <c r="S51" s="7">
+        <f t="shared" si="1"/>
         <v>4.9180327868852463E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -12791,12 +13854,12 @@
       <c r="Q52" t="s">
         <v>295</v>
       </c>
-      <c r="S52" s="8">
-        <f>G52/E52</f>
+      <c r="S52" s="7">
+        <f t="shared" si="1"/>
         <v>4.7619047619047623E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -12848,12 +13911,12 @@
       <c r="Q53" t="s">
         <v>295</v>
       </c>
-      <c r="S53" s="8">
-        <f>G53/E53</f>
+      <c r="S53" s="7">
+        <f t="shared" si="1"/>
         <v>4.6382189239332098E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -12905,12 +13968,12 @@
       <c r="Q54" t="s">
         <v>295</v>
       </c>
-      <c r="S54" s="8">
-        <f>G54/E54</f>
+      <c r="S54" s="7">
+        <f t="shared" si="1"/>
         <v>4.3478260869565218E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>211</v>
       </c>
@@ -12962,12 +14025,12 @@
       <c r="Q55" t="s">
         <v>295</v>
       </c>
-      <c r="S55" s="8">
-        <f>G55/E55</f>
+      <c r="S55" s="7">
+        <f t="shared" si="1"/>
         <v>4.3010752688172043E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -13019,12 +14082,12 @@
       <c r="Q56" t="s">
         <v>295</v>
       </c>
-      <c r="S56" s="8">
-        <f>G56/E56</f>
+      <c r="S56" s="7">
+        <f t="shared" si="1"/>
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -13076,12 +14139,12 @@
       <c r="Q57" t="s">
         <v>295</v>
       </c>
-      <c r="S57" s="8">
-        <f>G57/E57</f>
+      <c r="S57" s="7">
+        <f t="shared" si="1"/>
         <v>3.88651379712398E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -13133,12 +14196,12 @@
       <c r="Q58" t="s">
         <v>295</v>
       </c>
-      <c r="S58" s="8">
-        <f>G58/E58</f>
+      <c r="S58" s="7">
+        <f t="shared" si="1"/>
         <v>3.4305317324185248E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -13190,12 +14253,12 @@
       <c r="Q59" t="s">
         <v>295</v>
       </c>
-      <c r="S59" s="8">
-        <f>G59/E59</f>
+      <c r="S59" s="7">
+        <f t="shared" si="1"/>
         <v>3.4285714285714284E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>231</v>
       </c>
@@ -13247,12 +14310,12 @@
       <c r="Q60" t="s">
         <v>295</v>
       </c>
-      <c r="S60" s="8">
-        <f>G60/E60</f>
+      <c r="S60" s="7">
+        <f t="shared" si="1"/>
         <v>3.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>257</v>
       </c>
@@ -13304,12 +14367,12 @@
       <c r="Q61" t="s">
         <v>295</v>
       </c>
-      <c r="S61" s="8">
-        <f>G61/E61</f>
+      <c r="S61" s="7">
+        <f t="shared" si="1"/>
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -13361,12 +14424,12 @@
       <c r="Q62" t="s">
         <v>295</v>
       </c>
-      <c r="S62" s="8">
-        <f>G62/E62</f>
+      <c r="S62" s="7">
+        <f t="shared" si="1"/>
         <v>2.4630541871921183E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -13418,12 +14481,12 @@
       <c r="Q63" t="s">
         <v>295</v>
       </c>
-      <c r="S63" s="8">
-        <f>G63/E63</f>
+      <c r="S63" s="7">
+        <f t="shared" si="1"/>
         <v>2.3474178403755869E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>239</v>
       </c>
@@ -13475,12 +14538,12 @@
       <c r="Q64" t="s">
         <v>295</v>
       </c>
-      <c r="S64" s="8">
-        <f>G64/E64</f>
+      <c r="S64" s="7">
+        <f t="shared" si="1"/>
         <v>2.3255813953488372E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -13532,12 +14595,12 @@
       <c r="Q65" t="s">
         <v>295</v>
       </c>
-      <c r="S65" s="8">
-        <f>G65/E65</f>
+      <c r="S65" s="7">
+        <f t="shared" si="1"/>
         <v>2.2222222222222222E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -13589,12 +14652,12 @@
       <c r="Q66" t="s">
         <v>295</v>
       </c>
-      <c r="S66" s="8">
-        <f>G66/E66</f>
+      <c r="S66" s="7">
+        <f t="shared" ref="S66:S75" si="2">G66/E66</f>
         <v>2.0161290322580645E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -13646,12 +14709,12 @@
       <c r="Q67" t="s">
         <v>295</v>
       </c>
-      <c r="S67" s="8">
-        <f>G67/E67</f>
+      <c r="S67" s="7">
+        <f t="shared" si="2"/>
         <v>1.996007984031936E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -13703,12 +14766,12 @@
       <c r="Q68" t="s">
         <v>295</v>
       </c>
-      <c r="S68" s="8">
-        <f>G68/E68</f>
+      <c r="S68" s="7">
+        <f t="shared" si="2"/>
         <v>1.6666666666666668E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -13760,12 +14823,12 @@
       <c r="Q69" t="s">
         <v>295</v>
       </c>
-      <c r="S69" s="8">
-        <f>G69/E69</f>
+      <c r="S69" s="7">
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -13817,12 +14880,12 @@
       <c r="Q70" t="s">
         <v>295</v>
       </c>
-      <c r="S70" s="8">
-        <f>G70/E70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S70" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -13874,12 +14937,12 @@
       <c r="Q71" t="s">
         <v>295</v>
       </c>
-      <c r="S71" s="8">
-        <f>G71/E71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S71" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>179</v>
       </c>
@@ -13931,12 +14994,12 @@
       <c r="Q72" t="s">
         <v>295</v>
       </c>
-      <c r="S72" s="8">
-        <f>G72/E72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S72" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -13988,12 +15051,12 @@
       <c r="Q73" t="s">
         <v>295</v>
       </c>
-      <c r="S73" s="8">
-        <f>G73/E73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S73" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>57</v>
       </c>
@@ -14045,12 +15108,12 @@
       <c r="Q74" t="s">
         <v>295</v>
       </c>
-      <c r="S74" s="8">
-        <f>G74/E74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S74" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -14102,12 +15165,19 @@
       <c r="Q75" t="s">
         <v>295</v>
       </c>
-      <c r="S75" s="8">
-        <f>G75/E75</f>
+      <c r="S75" s="7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S75" xr:uid="{1EA8121F-D0BC-419E-A720-652189C061CA}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="长沙电力职业技术学院"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S75">
     <sortCondition descending="1" ref="S2:S75"/>
   </sortState>
@@ -14118,18 +15188,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CB9DD0-B759-4992-B4C0-9158E6148BC5}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>324</v>
       </c>
@@ -14142,10 +15214,31 @@
       <c r="D1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="M1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B2">
         <v>1960</v>
@@ -14153,11 +15246,33 @@
       <c r="C2">
         <v>2500</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" t="str">
+        <f>_xlfn.XLOOKUP(E2,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>四到七</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0.59833333333333338</v>
+      </c>
+      <c r="N2" s="10">
+        <v>13025</v>
+      </c>
+      <c r="O2" s="10">
+        <v>21605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -14167,11 +15282,33 @@
       <c r="C3">
         <v>1600</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" t="str">
+        <f>_xlfn.XLOOKUP(E3,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>八到十</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="N3" s="10">
+        <v>7705</v>
+      </c>
+      <c r="O3" s="10">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -14181,11 +15318,33 @@
       <c r="C4">
         <v>3950</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xlfn.XLOOKUP(E4,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>前三</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="N4" s="10">
+        <v>5320</v>
+      </c>
+      <c r="O4" s="10">
+        <v>9655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -14195,11 +15354,33 @@
       <c r="C5">
         <v>3650</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xlfn.XLOOKUP(E5,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="N5" s="10">
+        <v>13816</v>
+      </c>
+      <c r="O5" s="10">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -14209,11 +15390,33 @@
       <c r="C6">
         <v>1700</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G6" t="str">
+        <f>_xlfn.XLOOKUP(E6,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="N6" s="10">
+        <v>10676</v>
+      </c>
+      <c r="O6" s="10">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -14223,11 +15426,33 @@
       <c r="C7">
         <v>3600</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" t="str">
+        <f>_xlfn.XLOOKUP(E7,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="N7" s="10">
+        <v>3140</v>
+      </c>
+      <c r="O7" s="10">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -14237,13 +15462,35 @@
       <c r="C8">
         <v>3900</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.XLOOKUP(E8,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="N8" s="10">
+        <v>10707</v>
+      </c>
+      <c r="O8" s="10">
+        <v>20170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B9">
         <v>1210</v>
@@ -14251,11 +15498,33 @@
       <c r="C9">
         <v>1770</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.XLOOKUP(E9,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>八到十</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="N9" s="10">
+        <v>5982</v>
+      </c>
+      <c r="O9" s="10">
+        <v>11170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -14265,11 +15534,33 @@
       <c r="C10">
         <v>1650</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.XLOOKUP(E10,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>前三</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.56333333333333335</v>
+      </c>
+      <c r="N10" s="10">
+        <v>4725</v>
+      </c>
+      <c r="O10" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -14279,11 +15570,33 @@
       <c r="C11">
         <v>4500</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.XLOOKUP(E11,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>前三</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0.55799999999999994</v>
+      </c>
+      <c r="N11" s="10">
+        <v>17780</v>
+      </c>
+      <c r="O11" s="10">
+        <v>33327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>270</v>
       </c>
@@ -14293,11 +15606,33 @@
       <c r="C12">
         <v>3100</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.XLOOKUP(E12,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="N12" s="10">
+        <v>2020</v>
+      </c>
+      <c r="O12" s="10">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -14307,11 +15642,33 @@
       <c r="C13">
         <v>4200</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" t="str">
+        <f>_xlfn.XLOOKUP(E13,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="N13" s="10">
+        <v>3340</v>
+      </c>
+      <c r="O13" s="10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -14321,11 +15678,33 @@
       <c r="C14">
         <v>1800</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" t="str">
+        <f>_xlfn.XLOOKUP(E14,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.55499999999999994</v>
+      </c>
+      <c r="N14" s="10">
+        <v>4200</v>
+      </c>
+      <c r="O14" s="10">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -14335,11 +15714,33 @@
       <c r="C15">
         <v>1100</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" t="s">
+        <v>344</v>
+      </c>
+      <c r="G15" t="str">
+        <f>_xlfn.XLOOKUP(E15,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="N15" s="10">
+        <v>6070</v>
+      </c>
+      <c r="O15" s="10">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -14349,11 +15750,33 @@
       <c r="C16">
         <v>3900</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" t="str">
+        <f>_xlfn.XLOOKUP(E16,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="N16" s="10">
+        <v>2150</v>
+      </c>
+      <c r="O16" s="10">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -14363,11 +15786,33 @@
       <c r="C17">
         <v>3400</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G17" t="str">
+        <f>_xlfn.XLOOKUP(E17,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.5142500000000001</v>
+      </c>
+      <c r="N17" s="10">
+        <v>72835</v>
+      </c>
+      <c r="O17" s="10">
+        <v>136759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -14377,13 +15822,35 @@
       <c r="C18">
         <v>4480</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>307</v>
+      </c>
+      <c r="F18" t="s">
+        <v>340</v>
+      </c>
+      <c r="G18" t="str">
+        <f>_xlfn.XLOOKUP(E18,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.51857142857142868</v>
+      </c>
+      <c r="N18" s="10">
+        <v>14220</v>
+      </c>
+      <c r="O18" s="10">
+        <v>27270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B19">
         <v>2020</v>
@@ -14391,11 +15858,33 @@
       <c r="C19">
         <v>3377</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" t="str">
+        <f>_xlfn.XLOOKUP(E19,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0.51357142857142868</v>
+      </c>
+      <c r="N19" s="10">
+        <v>49550</v>
+      </c>
+      <c r="O19" s="10">
+        <v>92139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -14405,11 +15894,33 @@
       <c r="C20">
         <v>1500</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" t="str">
+        <f>_xlfn.XLOOKUP(E20,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="N20" s="10">
+        <v>9065</v>
+      </c>
+      <c r="O20" s="10">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -14419,11 +15930,33 @@
       <c r="C21">
         <v>5600</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
+        <v>307</v>
+      </c>
+      <c r="F21" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" t="str">
+        <f>_xlfn.XLOOKUP(E21,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="10">
+        <v>750</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -14433,11 +15966,33 @@
       <c r="C22">
         <v>3800</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" t="s">
+        <v>340</v>
+      </c>
+      <c r="G22" t="str">
+        <f>_xlfn.XLOOKUP(E22,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.53739130434782623</v>
+      </c>
+      <c r="N22" s="10">
+        <v>128913</v>
+      </c>
+      <c r="O22" s="10">
+        <v>237761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -14447,11 +16002,21 @@
       <c r="C23">
         <v>5300</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" t="s">
+        <v>341</v>
+      </c>
+      <c r="G23" t="str">
+        <f>_xlfn.XLOOKUP(E23,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>四到七</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -14461,11 +16026,21 @@
       <c r="C24">
         <v>2400</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" t="s">
+        <v>340</v>
+      </c>
+      <c r="G24" t="str">
+        <f>_xlfn.XLOOKUP(E24,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -14475,11 +16050,21 @@
       <c r="C25">
         <v>3950</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25" t="str">
+        <f>_xlfn.XLOOKUP(E25,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -14489,11 +16074,21 @@
       <c r="C26">
         <v>1800</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" t="s">
+        <v>310</v>
+      </c>
+      <c r="F26" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" t="str">
+        <f>_xlfn.XLOOKUP(E26,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -14503,11 +16098,21 @@
       <c r="C27">
         <v>2900</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E27" t="s">
+        <v>307</v>
+      </c>
+      <c r="F27" t="s">
+        <v>340</v>
+      </c>
+      <c r="G27" t="str">
+        <f>_xlfn.XLOOKUP(E27,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -14517,11 +16122,21 @@
       <c r="C28">
         <v>3700</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" t="s">
+        <v>340</v>
+      </c>
+      <c r="G28" t="str">
+        <f>_xlfn.XLOOKUP(E28,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>156</v>
       </c>
@@ -14531,11 +16146,21 @@
       <c r="C29">
         <v>5900</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E29" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" t="s">
+        <v>341</v>
+      </c>
+      <c r="G29" t="str">
+        <f>_xlfn.XLOOKUP(E29,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>四到七</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -14545,11 +16170,21 @@
       <c r="C30">
         <v>5800</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E30" t="s">
+        <v>307</v>
+      </c>
+      <c r="F30" t="s">
+        <v>340</v>
+      </c>
+      <c r="G30" t="str">
+        <f>_xlfn.XLOOKUP(E30,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -14559,11 +16194,21 @@
       <c r="C31">
         <v>5500</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" t="s">
+        <v>340</v>
+      </c>
+      <c r="G31" t="str">
+        <f>_xlfn.XLOOKUP(E31,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>196</v>
       </c>
@@ -14573,13 +16218,23 @@
       <c r="C32">
         <v>3000</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.XLOOKUP(E32,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>152</v>
       </c>
       <c r="B33">
         <v>3500</v>
@@ -14587,11 +16242,21 @@
       <c r="C33">
         <v>6500</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" t="s">
+        <v>340</v>
+      </c>
+      <c r="G33" t="str">
+        <f>_xlfn.XLOOKUP(E33,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -14601,11 +16266,21 @@
       <c r="C34">
         <v>4300</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F34" t="s">
+        <v>341</v>
+      </c>
+      <c r="G34" t="str">
+        <f>_xlfn.XLOOKUP(E34,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>四到七</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -14615,11 +16290,21 @@
       <c r="C35">
         <v>4800</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E35" t="s">
+        <v>309</v>
+      </c>
+      <c r="F35" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" t="str">
+        <f>_xlfn.XLOOKUP(E35,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>四到七</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -14629,11 +16314,21 @@
       <c r="C36">
         <v>1600</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E36" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36" t="str">
+        <f>_xlfn.XLOOKUP(E36,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>四到七</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -14643,11 +16338,21 @@
       <c r="C37">
         <v>6055</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E37" t="s">
+        <v>299</v>
+      </c>
+      <c r="F37" t="s">
+        <v>342</v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xlfn.XLOOKUP(E37,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>前三</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -14657,11 +16362,21 @@
       <c r="C38">
         <v>4200</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E38" t="s">
+        <v>301</v>
+      </c>
+      <c r="F38" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" t="str">
+        <f>_xlfn.XLOOKUP(E38,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>216</v>
       </c>
@@ -14671,11 +16386,21 @@
       <c r="C39">
         <v>4100</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E39" t="s">
+        <v>313</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" t="str">
+        <f>_xlfn.XLOOKUP(E39,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -14685,11 +16410,21 @@
       <c r="C40">
         <v>7050</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E40" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40" t="s">
+        <v>341</v>
+      </c>
+      <c r="G40" t="str">
+        <f>_xlfn.XLOOKUP(E40,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>八到十</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -14699,11 +16434,21 @@
       <c r="C41">
         <v>1308</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E41" t="s">
+        <v>307</v>
+      </c>
+      <c r="F41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G41" t="str">
+        <f>_xlfn.XLOOKUP(E41,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -14713,11 +16458,21 @@
       <c r="C42">
         <v>1950</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E42" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="str">
+        <f>_xlfn.XLOOKUP(E42,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>前三</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -14727,11 +16482,21 @@
       <c r="C43">
         <v>2350</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E43" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="str">
+        <f>_xlfn.XLOOKUP(E43,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>八到十</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>259</v>
       </c>
@@ -14741,11 +16506,21 @@
       <c r="C44">
         <v>4200</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E44" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="str">
+        <f>_xlfn.XLOOKUP(E44,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -14755,11 +16530,21 @@
       <c r="C45">
         <v>1200</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E45" t="s">
+        <v>307</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="str">
+        <f>_xlfn.XLOOKUP(E45,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -14769,13 +16554,23 @@
       <c r="C46">
         <v>1700</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E46" t="s">
+        <v>307</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="str">
+        <f>_xlfn.XLOOKUP(E46,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B47">
         <v>1750</v>
@@ -14783,13 +16578,23 @@
       <c r="C47">
         <v>3450</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E47" t="s">
+        <v>310</v>
+      </c>
+      <c r="F47" t="s">
+        <v>342</v>
+      </c>
+      <c r="G47" t="str">
+        <f>_xlfn.XLOOKUP(E47,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B48">
         <v>750</v>
@@ -14797,11 +16602,21 @@
       <c r="C48">
         <v>1500</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G48" t="e">
+        <f>_xlfn.XLOOKUP(E48,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -14811,11 +16626,21 @@
       <c r="C49">
         <v>3000</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E49" t="s">
+        <v>308</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="str">
+        <f>_xlfn.XLOOKUP(E49,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>211</v>
       </c>
@@ -14825,11 +16650,21 @@
       <c r="C50">
         <v>4800</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E50" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" t="s">
+        <v>340</v>
+      </c>
+      <c r="G50" t="str">
+        <f>_xlfn.XLOOKUP(E50,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -14839,13 +16674,23 @@
       <c r="C51">
         <v>7200</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" t="s">
+        <v>344</v>
+      </c>
+      <c r="G51" t="str">
+        <f>_xlfn.XLOOKUP(E51,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>333</v>
+        <v>149</v>
       </c>
       <c r="B52">
         <v>2000</v>
@@ -14853,11 +16698,21 @@
       <c r="C52">
         <v>4096</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E52" t="s">
+        <v>307</v>
+      </c>
+      <c r="F52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G52" t="str">
+        <f>_xlfn.XLOOKUP(E52,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -14867,11 +16722,21 @@
       <c r="C53">
         <v>4100</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
+        <v>307</v>
+      </c>
+      <c r="F53" t="s">
+        <v>340</v>
+      </c>
+      <c r="G53" t="str">
+        <f>_xlfn.XLOOKUP(E53,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -14881,11 +16746,21 @@
       <c r="C54">
         <v>3500</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E54" t="s">
+        <v>307</v>
+      </c>
+      <c r="F54" t="s">
+        <v>340</v>
+      </c>
+      <c r="G54" t="str">
+        <f>_xlfn.XLOOKUP(E54,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>173</v>
       </c>
@@ -14895,11 +16770,21 @@
       <c r="C55">
         <v>3500</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55" t="s">
+        <v>342</v>
+      </c>
+      <c r="G55" t="str">
+        <f>_xlfn.XLOOKUP(E55,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>前三</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -14909,11 +16794,21 @@
       <c r="C56">
         <v>3750</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" t="s">
+        <v>340</v>
+      </c>
+      <c r="G56" t="str">
+        <f>_xlfn.XLOOKUP(E56,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>242</v>
       </c>
@@ -14923,11 +16818,21 @@
       <c r="C57">
         <v>4250</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E57" t="s">
+        <v>311</v>
+      </c>
+      <c r="F57" t="s">
+        <v>344</v>
+      </c>
+      <c r="G57" t="str">
+        <f>_xlfn.XLOOKUP(E57,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>八到十</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -14937,11 +16842,21 @@
       <c r="C58">
         <v>3150</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E58" t="s">
+        <v>311</v>
+      </c>
+      <c r="F58" t="s">
+        <v>344</v>
+      </c>
+      <c r="G58" t="str">
+        <f>_xlfn.XLOOKUP(E58,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>八到十</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>198</v>
       </c>
@@ -14951,11 +16866,21 @@
       <c r="C59">
         <v>4200</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E59" t="s">
+        <v>307</v>
+      </c>
+      <c r="F59" t="s">
+        <v>340</v>
+      </c>
+      <c r="G59" t="str">
+        <f>_xlfn.XLOOKUP(E59,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>277</v>
       </c>
@@ -14965,11 +16890,21 @@
       <c r="C60">
         <v>4447</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E60" t="s">
+        <v>307</v>
+      </c>
+      <c r="F60" t="s">
+        <v>340</v>
+      </c>
+      <c r="G60" t="str">
+        <f>_xlfn.XLOOKUP(E60,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>221</v>
       </c>
@@ -14979,11 +16914,21 @@
       <c r="C61">
         <v>4600</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E61" t="s">
+        <v>310</v>
+      </c>
+      <c r="F61" t="s">
+        <v>342</v>
+      </c>
+      <c r="G61" t="str">
+        <f>_xlfn.XLOOKUP(E61,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>倒数</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -14993,11 +16938,21 @@
       <c r="C62">
         <v>4500</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E62" t="s">
+        <v>308</v>
+      </c>
+      <c r="F62" t="s">
+        <v>340</v>
+      </c>
+      <c r="G62" t="str">
+        <f>_xlfn.XLOOKUP(E62,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -15007,11 +16962,21 @@
       <c r="C63">
         <v>3320</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E63" t="s">
+        <v>303</v>
+      </c>
+      <c r="F63" t="s">
+        <v>340</v>
+      </c>
+      <c r="G63" t="str">
+        <f>_xlfn.XLOOKUP(E63,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -15021,13 +16986,23 @@
       <c r="C64">
         <v>2700</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G64" t="str">
+        <f>_xlfn.XLOOKUP(E64,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>106</v>
       </c>
       <c r="B65">
         <v>600</v>
@@ -15035,11 +17010,21 @@
       <c r="C65">
         <v>1400</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E65" t="s">
+        <v>308</v>
+      </c>
+      <c r="F65" t="s">
+        <v>340</v>
+      </c>
+      <c r="G65" t="str">
+        <f>_xlfn.XLOOKUP(E65,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -15049,11 +17034,21 @@
       <c r="C66">
         <v>1240</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E66" t="s">
+        <v>307</v>
+      </c>
+      <c r="F66" t="s">
+        <v>340</v>
+      </c>
+      <c r="G66" t="str">
+        <f>_xlfn.XLOOKUP(E66,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -15063,11 +17058,21 @@
       <c r="C67">
         <v>2600</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E67" t="s">
+        <v>307</v>
+      </c>
+      <c r="F67" t="s">
+        <v>340</v>
+      </c>
+      <c r="G67" t="str">
+        <f>_xlfn.XLOOKUP(E67,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>257</v>
       </c>
@@ -15077,11 +17082,21 @@
       <c r="C68">
         <v>3998</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E68" t="s">
+        <v>307</v>
+      </c>
+      <c r="F68" t="s">
+        <v>340</v>
+      </c>
+      <c r="G68" t="str">
+        <f>_xlfn.XLOOKUP(E68,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>280</v>
       </c>
@@ -15091,13 +17106,23 @@
       <c r="C69">
         <v>620</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E69" t="s">
+        <v>307</v>
+      </c>
+      <c r="F69" t="s">
+        <v>340</v>
+      </c>
+      <c r="G69" t="str">
+        <f>_xlfn.XLOOKUP(E69,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="B70">
         <v>360</v>
@@ -15105,17 +17130,408 @@
       <c r="C70">
         <v>1200</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>0.3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>307</v>
+      </c>
+      <c r="F70" t="s">
+        <v>340</v>
+      </c>
+      <c r="G70" t="str">
+        <f>_xlfn.XLOOKUP(E70,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>长株潭</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>SUM(B2:B70)</f>
+        <v>128913</v>
+      </c>
+      <c r="C71">
+        <f>SUM(C2:C70)</f>
+        <v>237761</v>
+      </c>
+      <c r="E71" t="s">
+        <v>330</v>
+      </c>
+      <c r="F71" t="e">
+        <f>_xlfn.XLOOKUP(E71,$L$21:$L$34,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G71" t="e">
+        <f>_xlfn.XLOOKUP(E71,Sheet3!H:H,Sheet3!J:J)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="9">
+        <f>B71/C71</f>
+        <v>0.54219573437191126</v>
+      </c>
+      <c r="D72" s="8">
+        <f>AVERAGE(D2:D70)</f>
+        <v>0.53739130434782623</v>
+      </c>
+      <c r="E72" s="8">
+        <f>MEDIAN(D2:D70)</f>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:A70" xr:uid="{F1CB9DD0-B759-4992-B4C0-9158E6148BC5}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D70">
-    <sortCondition descending="1" ref="D2:D70"/>
-  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42265A18-C1E3-4A9B-B5F8-F4F02880E61D}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H12:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="I2" s="11">
+        <v>14300</v>
+      </c>
+      <c r="J2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" s="11">
+        <v>4750</v>
+      </c>
+      <c r="J3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I4" s="11">
+        <v>4500</v>
+      </c>
+      <c r="J4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I5" s="11">
+        <v>4200</v>
+      </c>
+      <c r="J5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="H6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" s="11">
+        <v>3700</v>
+      </c>
+      <c r="J6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I7" s="11">
+        <v>3080</v>
+      </c>
+      <c r="J7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2700</v>
+      </c>
+      <c r="J8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>353</v>
+      </c>
+      <c r="H9" t="s">
+        <v>311</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2600</v>
+      </c>
+      <c r="J9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H10" t="s">
+        <v>306</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2450</v>
+      </c>
+      <c r="J10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1950</v>
+      </c>
+      <c r="J12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>356</v>
+      </c>
+      <c r="H13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1870</v>
+      </c>
+      <c r="J13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>357</v>
+      </c>
+      <c r="H14" t="s">
+        <v>313</v>
+      </c>
+      <c r="I14">
+        <v>900</v>
+      </c>
+      <c r="J14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="H15" t="s">
+        <v>300</v>
+      </c>
+      <c r="I15">
+        <v>600</v>
+      </c>
+      <c r="J15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/2025招生计划提取-修正.xlsx
+++ b/data/2025招生计划提取-修正.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_code_lib\niece_edu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC4E253-95AD-4D43-AC20-07F97AC0E2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23960674-9DC7-473D-9A27-53E4E7002EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="民办学校" sheetId="4" r:id="rId3"/>
     <sheet name="公办学校" sheetId="3" r:id="rId4"/>
     <sheet name="2024单招录取率存疑" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="2024年招生率1" sheetId="7" r:id="rId6"/>
+    <sheet name="2023年招生率" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2024单招录取率存疑'!$A$1:$A$70</definedName>
@@ -27,8 +29,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="15" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="589">
   <si>
     <t>学校名称</t>
   </si>
@@ -1260,6 +1262,621 @@
   </si>
   <si>
     <t>长株潭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>院校名称</t>
+  </si>
+  <si>
+    <t>招生人数</t>
+  </si>
+  <si>
+    <t>报考录取比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">长沙电力职业技术学院
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1285</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2561</t>
+  </si>
+  <si>
+    <t>3395</t>
+  </si>
+  <si>
+    <t>4115</t>
+  </si>
+  <si>
+    <t>4215</t>
+  </si>
+  <si>
+    <t>1600
+1800</t>
+  </si>
+  <si>
+    <t>3110</t>
+  </si>
+  <si>
+    <t>3461</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>3237</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1500
+1985</t>
+  </si>
+  <si>
+    <t>2849</t>
+  </si>
+  <si>
+    <t>3726</t>
+  </si>
+  <si>
+    <t>3940</t>
+  </si>
+  <si>
+    <t>1843
+4606</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3928
+2645</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1600
+2000</t>
+  </si>
+  <si>
+    <t>2902</t>
+  </si>
+  <si>
+    <t>3575</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>5160</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3572</t>
+  </si>
+  <si>
+    <t>6131</t>
+  </si>
+  <si>
+    <t>25
+26</t>
+  </si>
+  <si>
+    <t>邵阳职业技术学院
+湖南体育职业学院</t>
+  </si>
+  <si>
+    <t>2025
+680</t>
+  </si>
+  <si>
+    <t>3446
+1156</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>3912</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>5823</t>
+  </si>
+  <si>
+    <t>29
+30</t>
+  </si>
+  <si>
+    <t>益阳职业技术学院
+怀化职业技术学院</t>
+  </si>
+  <si>
+    <t>1750
+2200</t>
+  </si>
+  <si>
+    <t>2902
+3637</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>991</t>
+  </si>
+  <si>
+    <t>3180</t>
+  </si>
+  <si>
+    <t>4853</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>2780</t>
+  </si>
+  <si>
+    <t>4481</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>3692</t>
+  </si>
+  <si>
+    <t>1500
+2000</t>
+  </si>
+  <si>
+    <t>2396
+3150</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>4939</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>2628</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2685</t>
+  </si>
+  <si>
+    <t>4137</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>3126</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>5213</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>湖南汽车工程职业学院</t>
+  </si>
+  <si>
+    <t>5192</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>3619</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1000
+2200</t>
+  </si>
+  <si>
+    <t>1463</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>3151</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>1671</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2827</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>3581</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2500
+2050</t>
+  </si>
+  <si>
+    <t>3292</t>
+  </si>
+  <si>
+    <t>2682</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1582</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>3928</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2667</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>3165</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>2200
+1340</t>
+  </si>
+  <si>
+    <t>2721
+1621</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>3135</t>
+  </si>
+  <si>
+    <t>3206</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>3427</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>815</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>2968</t>
+  </si>
+  <si>
+    <t>1766</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>4620</t>
+  </si>
+  <si>
+    <t>2460</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>3787</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>4081</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>3010</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>833</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>671</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长沙职业技术学院
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙商贸旅游职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南邮电职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南生物机电职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南水利水电职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南理工职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南信息职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常德科技职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳阳现代服务职业学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙环境保护职业技术学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙幼儿师范高等专科学校</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南安全技术职业学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">湖南工程职业技术学院
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南幼儿师范高等专科学校</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>娄底幼儿师范高等专科学校</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南网络工程职业学院</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南艺术职业学院</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1267,7 +1884,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,6 +1896,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1302,6 +1920,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="报宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1311,7 +1943,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1345,6 +1977,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1352,7 +2074,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1373,8 +2095,38 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -4223,7 +4975,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D24052E-0BB2-491A-AAD3-E1C3A3B9047F}" name="数据透视表1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D24052E-0BB2-491A-AAD3-E1C3A3B9047F}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L1:O22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -4684,14 +5436,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>320</v>
       </c>
@@ -4702,7 +5454,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>305</v>
       </c>
@@ -4713,7 +5465,7 @@
         <v>4284</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>293</v>
       </c>
@@ -4724,7 +5476,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
         <v>297</v>
       </c>
@@ -4735,7 +5487,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>295</v>
       </c>
@@ -4746,7 +5498,7 @@
         <v>161886</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
         <v>293</v>
       </c>
@@ -4757,7 +5509,7 @@
         <v>114080</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>297</v>
       </c>
@@ -4768,7 +5520,7 @@
         <v>47806</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
         <v>322</v>
       </c>
@@ -4794,12 +5546,12 @@
       <selection activeCell="N1" sqref="A1:R93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="175.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4855,7 +5607,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4908,7 +5660,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4961,7 +5713,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -5014,7 +5766,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5067,7 +5819,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -5120,7 +5872,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -5173,7 +5925,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -5226,7 +5978,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -5279,7 +6031,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -5332,7 +6084,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -5385,7 +6137,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -5438,7 +6190,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5491,7 +6243,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -5544,7 +6296,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5597,7 +6349,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -5650,7 +6402,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5703,7 +6455,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -5756,7 +6508,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -5809,7 +6561,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -5862,7 +6614,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -5915,7 +6667,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -5968,7 +6720,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -6021,7 +6773,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -6074,7 +6826,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -6127,7 +6879,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -6180,7 +6932,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -6233,7 +6985,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -6286,7 +7038,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -6339,7 +7091,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -6392,7 +7144,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -6445,7 +7197,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -6498,7 +7250,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -6551,7 +7303,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -6604,7 +7356,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -6657,7 +7409,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -6710,7 +7462,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -6763,7 +7515,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -6816,7 +7568,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" t="s">
         <v>140</v>
       </c>
@@ -6869,7 +7621,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -6922,7 +7674,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -6975,7 +7727,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" t="s">
         <v>148</v>
       </c>
@@ -7028,7 +7780,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -7081,7 +7833,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -7134,7 +7886,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -7187,7 +7939,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" t="s">
         <v>158</v>
       </c>
@@ -7240,7 +7992,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -7293,7 +8045,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -7346,7 +8098,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -7399,7 +8151,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -7452,7 +8204,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -7505,7 +8257,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -7558,7 +8310,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1">
       <c r="A53" t="s">
         <v>179</v>
       </c>
@@ -7611,7 +8363,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -7664,7 +8416,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -7717,7 +8469,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>186</v>
       </c>
@@ -7770,7 +8522,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -7823,7 +8575,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -7876,7 +8628,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" hidden="1">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -7929,7 +8681,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -7982,7 +8734,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -8035,7 +8787,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>200</v>
       </c>
@@ -8088,7 +8840,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -8141,7 +8893,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1">
       <c r="A64" t="s">
         <v>205</v>
       </c>
@@ -8194,7 +8946,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -8247,7 +8999,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1">
       <c r="A66" t="s">
         <v>211</v>
       </c>
@@ -8300,7 +9052,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -8353,7 +9105,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1">
       <c r="A68" t="s">
         <v>216</v>
       </c>
@@ -8406,7 +9158,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
         <v>218</v>
       </c>
@@ -8459,7 +9211,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1">
       <c r="A70" t="s">
         <v>221</v>
       </c>
@@ -8512,7 +9264,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -8565,7 +9317,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -8618,7 +9370,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1">
       <c r="A73" t="s">
         <v>231</v>
       </c>
@@ -8671,7 +9423,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
         <v>235</v>
       </c>
@@ -8727,7 +9479,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
         <v>237</v>
       </c>
@@ -8780,7 +9532,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -8833,7 +9585,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -8886,7 +9638,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
         <v>245</v>
       </c>
@@ -8939,7 +9691,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1">
       <c r="A79" t="s">
         <v>247</v>
       </c>
@@ -8992,7 +9744,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1">
       <c r="A80" t="s">
         <v>250</v>
       </c>
@@ -9045,7 +9797,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>252</v>
       </c>
@@ -9101,7 +9853,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>254</v>
       </c>
@@ -9154,7 +9906,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1">
       <c r="A83" t="s">
         <v>257</v>
       </c>
@@ -9207,7 +9959,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1">
       <c r="A84" t="s">
         <v>259</v>
       </c>
@@ -9260,7 +10012,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1">
       <c r="A85" t="s">
         <v>262</v>
       </c>
@@ -9313,7 +10065,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>265</v>
       </c>
@@ -9366,7 +10118,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1">
       <c r="A87" t="s">
         <v>267</v>
       </c>
@@ -9419,7 +10171,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1">
       <c r="A88" t="s">
         <v>270</v>
       </c>
@@ -9472,7 +10224,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -9525,7 +10277,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>275</v>
       </c>
@@ -9581,7 +10333,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1">
       <c r="A91" t="s">
         <v>277</v>
       </c>
@@ -9634,7 +10386,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1">
       <c r="A92" t="s">
         <v>280</v>
       </c>
@@ -9687,7 +10439,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>283</v>
       </c>
@@ -9762,7 +10514,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="194.26953125" bestFit="1" customWidth="1"/>
@@ -9778,7 +10530,7 @@
     <col min="18" max="18" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9837,7 +10589,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -9894,7 +10646,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -9951,7 +10703,7 @@
         <v>3.5958288385472853E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -10008,7 +10760,7 @@
         <v>3.1746031746031744E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -10065,7 +10817,7 @@
         <v>1.5873015873015872E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -10125,7 +10877,7 @@
         <v>1.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>275</v>
       </c>
@@ -10185,7 +10937,7 @@
         <v>1.3333333333333334E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -10242,7 +10994,7 @@
         <v>9.5238095238095247E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -10299,7 +11051,7 @@
         <v>8.5714285714285719E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -10356,7 +11108,7 @@
         <v>7.1428571428571426E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -10416,7 +11168,7 @@
         <v>4.7619047619047623E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -10473,7 +11225,7 @@
         <v>3.6968576709796672E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -10530,7 +11282,7 @@
         <v>3.1746031746031746E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>133</v>
       </c>
@@ -10587,7 +11339,7 @@
         <v>2.4630541871921183E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -10644,7 +11396,7 @@
         <v>2.1008403361344537E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>283</v>
       </c>
@@ -10701,7 +11453,7 @@
         <v>6.3492063492063492E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -10758,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -10815,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>245</v>
       </c>
@@ -10891,12 +11643,12 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="33.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10952,7 +11704,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -11009,7 +11761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -11066,7 +11818,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -11123,7 +11875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -11180,7 +11932,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -11237,7 +11989,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -11294,7 +12046,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -11351,7 +12103,7 @@
         <v>4.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -11408,7 +12160,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -11465,7 +12217,7 @@
         <v>3.4682080924855488E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1">
       <c r="A11" t="s">
         <v>280</v>
       </c>
@@ -11522,7 +12274,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -11579,7 +12331,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>272</v>
       </c>
@@ -11636,7 +12388,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -11693,7 +12445,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1">
       <c r="A15" t="s">
         <v>194</v>
       </c>
@@ -11750,7 +12502,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -11807,7 +12559,7 @@
         <v>1.6216216216216217E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -11864,7 +12616,7 @@
         <v>1.5576323987538941E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -11921,7 +12673,7 @@
         <v>1.4705882352941176E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1">
       <c r="A19" t="s">
         <v>176</v>
       </c>
@@ -11978,7 +12730,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -12035,7 +12787,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -12092,7 +12844,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1">
       <c r="A22" t="s">
         <v>270</v>
       </c>
@@ -12149,7 +12901,7 @@
         <v>9.5238095238095247E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -12206,7 +12958,7 @@
         <v>9.0909090909090905E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -12263,7 +13015,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1">
       <c r="A25" t="s">
         <v>196</v>
       </c>
@@ -12320,7 +13072,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -12377,7 +13129,7 @@
         <v>7.8048780487804878E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -12434,7 +13186,7 @@
         <v>7.6530612244897957E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1">
       <c r="A28" t="s">
         <v>242</v>
       </c>
@@ -12491,7 +13243,7 @@
         <v>7.4074074074074077E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -12548,7 +13300,7 @@
         <v>7.1428571428571426E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -12605,7 +13357,7 @@
         <v>7.1428571428571426E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1">
       <c r="A31" t="s">
         <v>152</v>
       </c>
@@ -12662,7 +13414,7 @@
         <v>6.7385444743935314E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" hidden="1">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -12719,7 +13471,7 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1">
       <c r="A33" t="s">
         <v>160</v>
       </c>
@@ -12776,7 +13528,7 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" hidden="1">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -12833,7 +13585,7 @@
         <v>6.5789473684210523E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -12890,7 +13642,7 @@
         <v>6.4935064935064939E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" hidden="1">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -12947,7 +13699,7 @@
         <v>6.41025641025641E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -13004,7 +13756,7 @@
         <v>6.2111801242236021E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" hidden="1">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13061,7 +13813,7 @@
         <v>6.0975609756097563E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -13118,7 +13870,7 @@
         <v>6.0606060606060606E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -13175,7 +13927,7 @@
         <v>5.9171597633136093E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -13232,7 +13984,7 @@
         <v>5.7142857142857143E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1">
       <c r="A42" t="s">
         <v>228</v>
       </c>
@@ -13289,7 +14041,7 @@
         <v>5.7142857142857143E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -13346,7 +14098,7 @@
         <v>5.5555555555555558E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" hidden="1">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -13403,7 +14155,7 @@
         <v>5.5478502080443829E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" hidden="1">
       <c r="A45" t="s">
         <v>163</v>
       </c>
@@ -13460,7 +14212,7 @@
         <v>5.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1">
       <c r="A46" t="s">
         <v>247</v>
       </c>
@@ -13517,7 +14269,7 @@
         <v>5.1282051282051282E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" hidden="1">
       <c r="A47" t="s">
         <v>262</v>
       </c>
@@ -13574,7 +14326,7 @@
         <v>5.065856129685917E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -13631,7 +14383,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" hidden="1">
       <c r="A49" t="s">
         <v>259</v>
       </c>
@@ -13688,7 +14440,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" hidden="1">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -13745,7 +14497,7 @@
         <v>4.9261083743842365E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" hidden="1">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -13802,7 +14554,7 @@
         <v>4.9180327868852463E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -13859,7 +14611,7 @@
         <v>4.7619047619047623E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -13916,7 +14668,7 @@
         <v>4.6382189239332098E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" hidden="1">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -13973,7 +14725,7 @@
         <v>4.3478260869565218E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1">
       <c r="A55" t="s">
         <v>211</v>
       </c>
@@ -14030,7 +14782,7 @@
         <v>4.3010752688172043E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -14087,7 +14839,7 @@
         <v>4.1666666666666666E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -14144,7 +14896,7 @@
         <v>3.88651379712398E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -14201,7 +14953,7 @@
         <v>3.4305317324185248E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" hidden="1">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -14258,7 +15010,7 @@
         <v>3.4285714285714284E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" hidden="1">
       <c r="A60" t="s">
         <v>231</v>
       </c>
@@ -14315,7 +15067,7 @@
         <v>3.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" hidden="1">
       <c r="A61" t="s">
         <v>257</v>
       </c>
@@ -14372,7 +15124,7 @@
         <v>3.0303030303030303E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" hidden="1">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -14429,7 +15181,7 @@
         <v>2.4630541871921183E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1">
       <c r="A63" t="s">
         <v>221</v>
       </c>
@@ -14486,7 +15238,7 @@
         <v>2.3474178403755869E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1">
       <c r="A64" t="s">
         <v>239</v>
       </c>
@@ -14543,7 +15295,7 @@
         <v>2.3255813953488372E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -14600,7 +15352,7 @@
         <v>2.2222222222222222E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -14657,7 +15409,7 @@
         <v>2.0161290322580645E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1">
       <c r="A67" t="s">
         <v>31</v>
       </c>
@@ -14714,7 +15466,7 @@
         <v>1.996007984031936E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -14771,7 +15523,7 @@
         <v>1.6666666666666668E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -14828,7 +15580,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -14885,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1">
       <c r="A71" t="s">
         <v>198</v>
       </c>
@@ -14942,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1">
       <c r="A72" t="s">
         <v>179</v>
       </c>
@@ -14999,7 +15751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" hidden="1">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -15056,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" hidden="1">
       <c r="A74" t="s">
         <v>57</v>
       </c>
@@ -15113,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" hidden="1">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -15190,18 +15942,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CB9DD0-B759-4992-B4C0-9158E6148BC5}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>324</v>
       </c>
@@ -15236,7 +15988,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>331</v>
       </c>
@@ -15265,14 +16017,14 @@
       <c r="M2" s="8">
         <v>0.59833333333333338</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2">
         <v>13025</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2">
         <v>21605</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -15301,14 +16053,14 @@
       <c r="M3" s="8">
         <v>0.63</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3">
         <v>7705</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3">
         <v>11950</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -15337,14 +16089,14 @@
       <c r="M4" s="8">
         <v>0.56666666666666665</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4">
         <v>5320</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4">
         <v>9655</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -15373,14 +16125,14 @@
       <c r="M5" s="8">
         <v>0.57500000000000007</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5">
         <v>13816</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5">
         <v>24400</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -15409,14 +16161,14 @@
       <c r="M6" s="8">
         <v>0.60000000000000009</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6">
         <v>10676</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6">
         <v>18500</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -15445,14 +16197,14 @@
       <c r="M7" s="8">
         <v>0.52500000000000002</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7">
         <v>3140</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7">
         <v>5900</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -15481,14 +16233,14 @@
       <c r="M8" s="8">
         <v>0.56499999999999995</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8">
         <v>10707</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8">
         <v>20170</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>332</v>
       </c>
@@ -15517,14 +16269,14 @@
       <c r="M9" s="8">
         <v>0.56666666666666665</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9">
         <v>5982</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9">
         <v>11170</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -15553,14 +16305,14 @@
       <c r="M10" s="8">
         <v>0.56333333333333335</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10">
         <v>4725</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10">
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -15589,14 +16341,14 @@
       <c r="M11" s="8">
         <v>0.55799999999999994</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11">
         <v>17780</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11">
         <v>33327</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>270</v>
       </c>
@@ -15625,14 +16377,14 @@
       <c r="M12" s="8">
         <v>0.59</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12">
         <v>2020</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12">
         <v>3377</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -15661,14 +16413,14 @@
       <c r="M13" s="8">
         <v>0.57499999999999996</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13">
         <v>3340</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13">
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -15697,14 +16449,14 @@
       <c r="M14" s="8">
         <v>0.55499999999999994</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14">
         <v>4200</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14">
         <v>8300</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -15733,14 +16485,14 @@
       <c r="M15" s="8">
         <v>0.55249999999999999</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15">
         <v>6070</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15">
         <v>11550</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -15769,14 +16521,14 @@
       <c r="M16" s="8">
         <v>0.52</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16">
         <v>2150</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16">
         <v>4100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -15805,14 +16557,14 @@
       <c r="M17" s="8">
         <v>0.5142500000000001</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17">
         <v>72835</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17">
         <v>136759</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>267</v>
       </c>
@@ -15841,14 +16593,14 @@
       <c r="M18" s="8">
         <v>0.51857142857142868</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18">
         <v>14220</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18">
         <v>27270</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -15877,14 +16629,14 @@
       <c r="M19" s="8">
         <v>0.51357142857142868</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19">
         <v>49550</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19">
         <v>92139</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -15913,14 +16665,14 @@
       <c r="M20" s="8">
         <v>0.51200000000000001</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20">
         <v>9065</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20">
         <v>17350</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -15949,14 +16701,14 @@
       <c r="M21" s="8">
         <v>0.5</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21">
         <v>750</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21">
         <v>1500</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -15985,14 +16737,14 @@
       <c r="M22" s="8">
         <v>0.53739130434782623</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22">
         <v>128913</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22">
         <v>237761</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>183</v>
       </c>
@@ -16016,7 +16768,7 @@
         <v>四到七</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -16040,7 +16792,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -16064,7 +16816,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -16088,7 +16840,7 @@
         <v>倒数</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -16112,7 +16864,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -16136,7 +16888,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>156</v>
       </c>
@@ -16160,7 +16912,7 @@
         <v>四到七</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -16184,7 +16936,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -16208,7 +16960,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>196</v>
       </c>
@@ -16232,7 +16984,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -16256,7 +17008,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -16280,7 +17032,7 @@
         <v>四到七</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -16304,7 +17056,7 @@
         <v>四到七</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -16328,7 +17080,7 @@
         <v>四到七</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -16352,7 +17104,7 @@
         <v>前三</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -16376,7 +17128,7 @@
         <v>倒数</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>216</v>
       </c>
@@ -16400,7 +17152,7 @@
         <v>倒数</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -16424,7 +17176,7 @@
         <v>八到十</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -16448,7 +17200,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -16472,7 +17224,7 @@
         <v>前三</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -16496,7 +17248,7 @@
         <v>八到十</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>259</v>
       </c>
@@ -16520,7 +17272,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -16544,7 +17296,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -16568,7 +17320,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>334</v>
       </c>
@@ -16592,7 +17344,7 @@
         <v>倒数</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>328</v>
       </c>
@@ -16616,7 +17368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>160</v>
       </c>
@@ -16640,7 +17392,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>211</v>
       </c>
@@ -16664,7 +17416,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -16688,7 +17440,7 @@
         <v>倒数</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -16712,7 +17464,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -16736,7 +17488,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -16760,7 +17512,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>173</v>
       </c>
@@ -16784,7 +17536,7 @@
         <v>前三</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -16808,7 +17560,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>242</v>
       </c>
@@ -16832,7 +17584,7 @@
         <v>八到十</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -16856,7 +17608,7 @@
         <v>八到十</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>198</v>
       </c>
@@ -16880,7 +17632,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>277</v>
       </c>
@@ -16904,7 +17656,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>221</v>
       </c>
@@ -16928,7 +17680,7 @@
         <v>倒数</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -16952,7 +17704,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -16976,7 +17728,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -17000,7 +17752,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -17024,7 +17776,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>97</v>
       </c>
@@ -17048,7 +17800,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -17072,7 +17824,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>257</v>
       </c>
@@ -17096,7 +17848,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>280</v>
       </c>
@@ -17120,7 +17872,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>272</v>
       </c>
@@ -17144,7 +17896,7 @@
         <v>长株潭</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71">
         <f>SUM(B2:B70)</f>
         <v>128913</v>
@@ -17165,7 +17917,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="C72" s="9">
         <f>B71/C71</f>
         <v>0.54219573437191126</v>
@@ -17188,6 +17940,1264 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456AA62E-20E0-440B-BBD5-E0A21C34D846}">
+  <dimension ref="A1:E83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.5" thickTop="1">
+      <c r="A1" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A2" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" s="20" customFormat="1">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" s="20" customFormat="1">
+      <c r="A4" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" s="20" customFormat="1">
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2050</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" s="20" customFormat="1">
+      <c r="A7" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2100</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" s="20" customFormat="1">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1150</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2261</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="14.5">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C9" s="15">
+        <v>600</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1179</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="39">
+      <c r="A11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" s="20" customFormat="1">
+      <c r="A12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" s="20" customFormat="1" ht="39">
+      <c r="A13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A14" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" s="20" customFormat="1">
+      <c r="A15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" s="20" customFormat="1">
+      <c r="A16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A17" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" s="20" customFormat="1">
+      <c r="A18" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2500</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" s="20" customFormat="1" ht="39">
+      <c r="A20" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A21" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" s="20" customFormat="1" ht="39">
+      <c r="A22" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" s="20" customFormat="1">
+      <c r="A23" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" s="20" customFormat="1">
+      <c r="A24" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" s="20" customFormat="1">
+      <c r="A25" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A26" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" s="20" customFormat="1" ht="39">
+      <c r="A27" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" s="20" customFormat="1">
+      <c r="A28" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A29" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" s="20" customFormat="1">
+      <c r="A30" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" s="20" customFormat="1">
+      <c r="A31" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:5" s="20" customFormat="1">
+      <c r="A32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="1:5" s="20" customFormat="1">
+      <c r="A33" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" s="20" customFormat="1">
+      <c r="A34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" s="20" customFormat="1">
+      <c r="A35" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A36" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" s="20" customFormat="1">
+      <c r="A37" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" s="20" customFormat="1">
+      <c r="A38" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" s="20" customFormat="1">
+      <c r="A39" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" s="20" customFormat="1">
+      <c r="A40" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" s="20" customFormat="1">
+      <c r="A41" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" s="20" customFormat="1">
+      <c r="A42" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" s="20" customFormat="1">
+      <c r="A43" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" s="20" customFormat="1">
+      <c r="A44" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" s="20" customFormat="1">
+      <c r="A45" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" s="20" customFormat="1">
+      <c r="A46" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A47" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" s="20" customFormat="1">
+      <c r="A48" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" s="20" customFormat="1">
+      <c r="A49" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" s="20" customFormat="1">
+      <c r="A50" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" s="20" customFormat="1">
+      <c r="A51" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A52" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:5" s="20" customFormat="1">
+      <c r="A53" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" s="20" customFormat="1">
+      <c r="A54" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" s="20" customFormat="1">
+      <c r="A55" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" s="20" customFormat="1">
+      <c r="A56" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:5" s="20" customFormat="1">
+      <c r="A57" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A58" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:5" s="20" customFormat="1">
+      <c r="A59" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="1:5" s="20" customFormat="1">
+      <c r="A60" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" s="20" customFormat="1" ht="26">
+      <c r="A61" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" s="20" customFormat="1">
+      <c r="A62" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5" s="20" customFormat="1">
+      <c r="A63" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5" s="20" customFormat="1">
+      <c r="A64" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="1:5" s="20" customFormat="1">
+      <c r="A65" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:5" s="20" customFormat="1">
+      <c r="A66" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" s="20" customFormat="1">
+      <c r="A67" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="1:5" s="20" customFormat="1">
+      <c r="A68" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:5" s="20" customFormat="1">
+      <c r="A69" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="1:5" s="20" customFormat="1">
+      <c r="A70" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" s="20" customFormat="1">
+      <c r="A71" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:5" s="20" customFormat="1">
+      <c r="A72" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="1:5" s="20" customFormat="1">
+      <c r="A73" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" s="20" customFormat="1">
+      <c r="A74" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" s="20" customFormat="1">
+      <c r="A75" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" s="20" customFormat="1">
+      <c r="A76" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:5" s="20" customFormat="1">
+      <c r="A77" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:5" s="20" customFormat="1">
+      <c r="A78" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:5" s="20" customFormat="1">
+      <c r="A79" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="E79" s="17"/>
+    </row>
+    <row r="80" spans="1:5" s="20" customFormat="1">
+      <c r="A80" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="1:5" s="20" customFormat="1">
+      <c r="A81" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" s="20" customFormat="1">
+      <c r="A82" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" s="20" customFormat="1">
+      <c r="A83" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="E83" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF75365B-100D-4B9B-9CDF-69FE0E0227E1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42265A18-C1E3-4A9B-B5F8-F4F02880E61D}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -17195,9 +19205,9 @@
       <selection activeCell="H13" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>347</v>
       </c>
@@ -17208,166 +19218,166 @@
         <v>387</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>348</v>
       </c>
       <c r="H2" t="s">
         <v>307</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>14300</v>
       </c>
       <c r="J2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>349</v>
       </c>
       <c r="H3" t="s">
         <v>298</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>4750</v>
       </c>
       <c r="J3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="H4" t="s">
         <v>299</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>4500</v>
       </c>
       <c r="J4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>350</v>
       </c>
       <c r="H5" t="s">
         <v>309</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>4200</v>
       </c>
       <c r="J5" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>351</v>
       </c>
       <c r="H6" t="s">
         <v>303</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>3700</v>
       </c>
       <c r="J6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>352</v>
       </c>
       <c r="H7" t="s">
         <v>312</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>3080</v>
       </c>
       <c r="J7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="H8" t="s">
         <v>308</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>2700</v>
       </c>
       <c r="J8" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>353</v>
       </c>
       <c r="H9" t="s">
         <v>311</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>2600</v>
       </c>
       <c r="J9" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>354</v>
       </c>
       <c r="H10" t="s">
         <v>306</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>2450</v>
       </c>
       <c r="J10" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>355</v>
       </c>
       <c r="H11" t="s">
         <v>310</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>2100</v>
       </c>
       <c r="J11" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="H12" t="s">
         <v>296</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>1950</v>
       </c>
       <c r="J12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>356</v>
       </c>
       <c r="H13" t="s">
         <v>301</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>1870</v>
       </c>
       <c r="J13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -17381,7 +19391,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -17395,137 +19405,137 @@
         <v>395</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>385</v>
       </c>
